--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>142.4465019941026</v>
+        <v>259.386824067396</v>
       </c>
       <c r="R2">
-        <v>142.4465019941026</v>
+        <v>2334.481416606564</v>
       </c>
       <c r="S2">
-        <v>5.677459547732527E-05</v>
+        <v>9.106522411474361E-05</v>
       </c>
       <c r="T2">
-        <v>5.677459547732527E-05</v>
+        <v>9.106522411474359E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>690.681982764701</v>
+        <v>1166.14279243274</v>
       </c>
       <c r="R3">
-        <v>690.681982764701</v>
+        <v>10495.28513189466</v>
       </c>
       <c r="S3">
-        <v>0.0002752836301769368</v>
+        <v>0.0004094080534911362</v>
       </c>
       <c r="T3">
-        <v>0.0002752836301769368</v>
+        <v>0.0004094080534911362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>764.4667271821106</v>
+        <v>1287.60156851284</v>
       </c>
       <c r="R4">
-        <v>764.4667271821106</v>
+        <v>11588.41411661556</v>
       </c>
       <c r="S4">
-        <v>0.0003046918568308261</v>
+        <v>0.0004520496591478789</v>
       </c>
       <c r="T4">
-        <v>0.0003046918568308261</v>
+        <v>0.0004520496591478789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>658.2211243825667</v>
+        <v>1147.024655530372</v>
       </c>
       <c r="R5">
-        <v>658.2211243825667</v>
+        <v>10323.22189977335</v>
       </c>
       <c r="S5">
-        <v>0.0002623457757705948</v>
+        <v>0.0004026960802522097</v>
       </c>
       <c r="T5">
-        <v>0.0002623457757705948</v>
+        <v>0.0004026960802522097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>110.940022792908</v>
+        <v>205.367309681644</v>
       </c>
       <c r="R6">
-        <v>110.940022792908</v>
+        <v>1848.305787134796</v>
       </c>
       <c r="S6">
-        <v>4.421712592544646E-05</v>
+        <v>7.21001159146835E-05</v>
       </c>
       <c r="T6">
-        <v>4.421712592544646E-05</v>
+        <v>7.21001159146835E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>780.703424971778</v>
+        <v>869.3914984371983</v>
       </c>
       <c r="R7">
-        <v>780.703424971778</v>
+        <v>7824.523485934785</v>
       </c>
       <c r="S7">
-        <v>0.000311163282495839</v>
+        <v>0.0003052249547882405</v>
       </c>
       <c r="T7">
-        <v>0.000311163282495839</v>
+        <v>0.0003052249547882404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>3785.405622196497</v>
+        <v>3908.581838534002</v>
       </c>
       <c r="R8">
-        <v>3785.405622196497</v>
+        <v>35177.23654680602</v>
       </c>
       <c r="S8">
-        <v>0.001508740965269168</v>
+        <v>0.001372220359984181</v>
       </c>
       <c r="T8">
-        <v>0.001508740965269168</v>
+        <v>0.001372220359984181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>4189.796055593898</v>
+        <v>4315.677409846406</v>
       </c>
       <c r="R9">
-        <v>4189.796055593898</v>
+        <v>38841.09668861765</v>
       </c>
       <c r="S9">
-        <v>0.001669917989272104</v>
+        <v>0.001515142999061836</v>
       </c>
       <c r="T9">
-        <v>0.001669917989272104</v>
+        <v>0.001515142999061836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>3607.49810631025</v>
+        <v>3844.50323412286</v>
       </c>
       <c r="R10">
-        <v>3607.49810631025</v>
+        <v>34600.52910710574</v>
       </c>
       <c r="S10">
-        <v>0.001437832749866057</v>
+        <v>0.001349723718172705</v>
       </c>
       <c r="T10">
-        <v>0.001437832749866057</v>
+        <v>0.001349723718172705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>608.0265541687793</v>
+        <v>688.3333173767905</v>
       </c>
       <c r="R11">
-        <v>608.0265541687793</v>
+        <v>6194.999856391115</v>
       </c>
       <c r="S11">
-        <v>0.000242339834037017</v>
+        <v>0.000241659259439776</v>
       </c>
       <c r="T11">
-        <v>0.000242339834037017</v>
+        <v>0.0002416592594397759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>118907.111808126</v>
+        <v>129191.7701065731</v>
       </c>
       <c r="R12">
-        <v>118907.111808126</v>
+        <v>1162725.930959158</v>
       </c>
       <c r="S12">
-        <v>0.04739255143354051</v>
+        <v>0.04535649619380309</v>
       </c>
       <c r="T12">
-        <v>0.04739255143354051</v>
+        <v>0.04535649619380307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>576546.272451538</v>
+        <v>580816.130862002</v>
       </c>
       <c r="R13">
-        <v>576546.272451538</v>
+        <v>5227345.177758018</v>
       </c>
       <c r="S13">
-        <v>0.2297928059598895</v>
+        <v>0.2039122508114121</v>
       </c>
       <c r="T13">
-        <v>0.2297928059598895</v>
+        <v>0.2039122508114121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>638138.033086967</v>
+        <v>641310.6233374139</v>
       </c>
       <c r="R14">
-        <v>638138.033086967</v>
+        <v>5771795.610036724</v>
       </c>
       <c r="S14">
-        <v>0.2543413013308569</v>
+        <v>0.2251505867785068</v>
       </c>
       <c r="T14">
-        <v>0.2543413013308569</v>
+        <v>0.2251505867785068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>549449.5950112455</v>
+        <v>571294.0359890761</v>
       </c>
       <c r="R15">
-        <v>549449.5950112455</v>
+        <v>5141646.323901685</v>
       </c>
       <c r="S15">
-        <v>0.2189929415973664</v>
+        <v>0.2005692448327447</v>
       </c>
       <c r="T15">
-        <v>0.2189929415973664</v>
+        <v>0.2005692448327447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>92607.10168073128</v>
+        <v>102286.4841157185</v>
       </c>
       <c r="R16">
-        <v>92607.10168073128</v>
+        <v>920578.3570414664</v>
       </c>
       <c r="S16">
-        <v>0.03691021304593862</v>
+        <v>0.03591061972171276</v>
       </c>
       <c r="T16">
-        <v>0.03691021304593862</v>
+        <v>0.03591061972171275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>29224.04896440656</v>
+        <v>49233.31183461095</v>
       </c>
       <c r="R17">
-        <v>29224.04896440656</v>
+        <v>443099.8065114986</v>
       </c>
       <c r="S17">
-        <v>0.01164776624863993</v>
+        <v>0.01728477378236059</v>
       </c>
       <c r="T17">
-        <v>0.01164776624863993</v>
+        <v>0.01728477378236059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>141698.9803230456</v>
+        <v>221341.5116590793</v>
       </c>
       <c r="R18">
-        <v>141698.9803230456</v>
+        <v>1992073.604931714</v>
       </c>
       <c r="S18">
-        <v>0.05647665737501544</v>
+        <v>0.07770832014155415</v>
       </c>
       <c r="T18">
-        <v>0.05647665737501544</v>
+        <v>0.07770832014155415</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>156836.5158433624</v>
+        <v>244395.1799373417</v>
       </c>
       <c r="R19">
-        <v>156836.5158433624</v>
+        <v>2199556.619436075</v>
       </c>
       <c r="S19">
-        <v>0.06250999230187246</v>
+        <v>0.08580197515265618</v>
       </c>
       <c r="T19">
-        <v>0.06250999230187246</v>
+        <v>0.08580197515265618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>135039.3733723222</v>
+        <v>217712.7645197624</v>
       </c>
       <c r="R20">
-        <v>135039.3733723222</v>
+        <v>1959414.880677862</v>
       </c>
       <c r="S20">
-        <v>0.05382235217711765</v>
+        <v>0.07643434382187891</v>
       </c>
       <c r="T20">
-        <v>0.05382235217711765</v>
+        <v>0.07643434382187891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>22760.24060139116</v>
+        <v>38980.05550029171</v>
       </c>
       <c r="R21">
-        <v>22760.24060139116</v>
+        <v>350820.4995026254</v>
       </c>
       <c r="S21">
-        <v>0.009071500072104794</v>
+        <v>0.01368507248932926</v>
       </c>
       <c r="T21">
-        <v>0.009071500072104794</v>
+        <v>0.01368507248932926</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H22">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>1952.305750032943</v>
+        <v>2176.222438016361</v>
       </c>
       <c r="R22">
-        <v>1952.305750032943</v>
+        <v>19586.00194214725</v>
       </c>
       <c r="S22">
-        <v>0.0007781262976241095</v>
+        <v>0.0007640256391357853</v>
       </c>
       <c r="T22">
-        <v>0.0007781262976241095</v>
+        <v>0.0007640256391357851</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H23">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>9466.167210280144</v>
+        <v>9783.789596667395</v>
       </c>
       <c r="R23">
-        <v>9466.167210280144</v>
+        <v>88054.10637000657</v>
       </c>
       <c r="S23">
-        <v>0.003772909875362373</v>
+        <v>0.003434881457511952</v>
       </c>
       <c r="T23">
-        <v>0.003772909875362373</v>
+        <v>0.003434881457511952</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H24">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>10477.42672718133</v>
+        <v>10802.81326816599</v>
       </c>
       <c r="R24">
-        <v>10477.42672718133</v>
+        <v>97225.31941349395</v>
       </c>
       <c r="S24">
-        <v>0.004175965402812511</v>
+        <v>0.003792639101358724</v>
       </c>
       <c r="T24">
-        <v>0.004175965402812511</v>
+        <v>0.003792639101358724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H25">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>9021.27372687913</v>
+        <v>9623.390861498059</v>
       </c>
       <c r="R25">
-        <v>9021.27372687913</v>
+        <v>86610.51775348253</v>
       </c>
       <c r="S25">
-        <v>0.003595589637960991</v>
+        <v>0.003378568856367177</v>
       </c>
       <c r="T25">
-        <v>0.003595589637960991</v>
+        <v>0.003378568856367177</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H26">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>1520.492545449427</v>
+        <v>1723.005588164049</v>
       </c>
       <c r="R26">
-        <v>1520.492545449427</v>
+        <v>15507.05029347644</v>
       </c>
       <c r="S26">
-        <v>0.0006060194387767677</v>
+        <v>0.0006049107953006365</v>
       </c>
       <c r="T26">
-        <v>0.0006060194387767677</v>
+        <v>0.0006049107953006365</v>
       </c>
     </row>
   </sheetData>
